--- a/ospa-library/analytics/labs_and_workshop_data/MM Restaurants.xlsx
+++ b/ospa-library/analytics/labs_and_workshop_data/MM Restaurants.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1 Oracle\Analytics\Class of SE 2019 2020\Workshops\Good Data for Mama Maggy April 24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1 Oracle\Analytics\Class of SE 2019 2020\Workshops\Class of SE Labs\Lab Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="CUSTOMER" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CUSTOMER!$A$1:$A$130</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CUSTOMER!$C$1:$C$130</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -1778,7 +1778,7 @@
   <dimension ref="A1:I130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:XFD52"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5546,7 +5546,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A130"/>
+  <autoFilter ref="C1:C130"/>
   <sortState ref="A2:I144">
     <sortCondition ref="F1"/>
   </sortState>
